--- a/Employee_Reports21/Jason Puzon Dy Q0501.xlsx
+++ b/Employee_Reports21/Jason Puzon Dy Q0501.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>-82</v>
+        <v>-83</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -787,11 +787,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>-322</v>
+        <v>-323</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -823,11 +823,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
